--- a/checkDate/data_upload/data.xlsx
+++ b/checkDate/data_upload/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="6096" tabRatio="601" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="6096" tabRatio="601" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Офис" sheetId="3" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="706">
   <si>
     <t>Ф.И.О.</t>
   </si>
@@ -307,24 +307,15 @@
     <t>Боровский Николай Владимирович</t>
   </si>
   <si>
-    <t xml:space="preserve"> контролер на контрольно-пропускном пункте</t>
-  </si>
-  <si>
     <t>Буйко Александр Юрьевич</t>
   </si>
   <si>
-    <t>контролер на контрольно-пропускном пункте</t>
-  </si>
-  <si>
     <t xml:space="preserve">Русак Оксана Васильевна  </t>
   </si>
   <si>
     <t>Дегтярева Татьяна Александровна</t>
   </si>
   <si>
-    <t xml:space="preserve">Ведущий специалист </t>
-  </si>
-  <si>
     <t>Савостьяник Ольга Эдуардовна</t>
   </si>
   <si>
@@ -376,9 +367,6 @@
     <t>Юхневич Татьяна Валентиновна</t>
   </si>
   <si>
-    <t>специалиста по работе с клиентами</t>
-  </si>
-  <si>
     <t>Тюляев Олег Николаевич</t>
   </si>
   <si>
@@ -836,31 +824,6 @@
   </si>
   <si>
     <t>Бюро  по эксплуатации и обслуживанию  РПТО «Бенякони»</t>
-  </si>
-  <si>
-    <r>
-      <t>Специалист</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2 категории</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1164,9 +1127,6 @@
     <t>Отдел безопасности</t>
   </si>
   <si>
-    <t>ведущий специалист</t>
-  </si>
-  <si>
     <t>Главный инженер</t>
   </si>
   <si>
@@ -1185,21 +1145,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Специалист</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Водитель погрузчика </t>
   </si>
   <si>
@@ -1257,9 +1202,6 @@
     </r>
   </si>
   <si>
-    <t>начальник склада</t>
-  </si>
-  <si>
     <t>повар 5-го разряда</t>
   </si>
   <si>
@@ -1395,9 +1337,6 @@
     <t>ведущий инженер-программист  (ТЛЦ)</t>
   </si>
   <si>
-    <t xml:space="preserve">укладчик-упаковщик </t>
-  </si>
-  <si>
     <t xml:space="preserve">Водитель погрузчика 0,75 ст. </t>
   </si>
   <si>
@@ -1842,9 +1781,6 @@
     <t>1 раз в 3 года</t>
   </si>
   <si>
-    <t xml:space="preserve">Охранник </t>
-  </si>
-  <si>
     <t>Сивицкий Сергей Леонидович</t>
   </si>
   <si>
@@ -2506,6 +2442,40 @@
   </si>
   <si>
     <t>1 раз в 3 года №89</t>
+  </si>
+  <si>
+    <r>
+      <t>Специалист</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2 категории</t>
+    </r>
+  </si>
+  <si>
+    <t>Начальник склада</t>
+  </si>
+  <si>
+    <t>Грузчик</t>
+  </si>
+  <si>
+    <t>Укладчик-упаковщик</t>
   </si>
 </sst>
 </file>
@@ -3370,25 +3340,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
@@ -3396,11 +3366,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E2" s="7">
         <v>2022</v>
@@ -3409,7 +3379,7 @@
         <v>2025</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H2" s="72"/>
       <c r="I2" s="72"/>
@@ -3432,7 +3402,7 @@
         <v>2026</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H3" s="78"/>
       <c r="I3" s="78"/>
@@ -3442,11 +3412,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E4" s="7">
         <v>2023</v>
@@ -3455,7 +3425,7 @@
         <v>2026</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H4" s="78"/>
       <c r="I4" s="78"/>
@@ -3465,11 +3435,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="2" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="E5" s="7">
         <v>2023</v>
@@ -3478,7 +3448,7 @@
         <v>2026</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H5" s="72"/>
       <c r="I5" s="72"/>
@@ -3492,7 +3462,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E6" s="6">
         <v>44216</v>
@@ -3501,7 +3471,7 @@
         <v>2024</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H6" s="78"/>
       <c r="I6" s="78"/>
@@ -3511,11 +3481,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E7" s="7">
         <v>2022</v>
@@ -3524,7 +3494,7 @@
         <v>2025</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H7" s="78"/>
       <c r="I7" s="78"/>
@@ -3536,7 +3506,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -3551,7 +3521,7 @@
       <c r="B9" s="28"/>
       <c r="C9" s="5"/>
       <c r="D9" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -3575,13 +3545,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E11" s="6">
         <v>44216</v>
@@ -3590,7 +3560,7 @@
         <v>2024</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H11" s="72"/>
       <c r="I11" s="72"/>
@@ -3603,10 +3573,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -3619,10 +3589,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -3652,10 +3622,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E15" s="7">
         <v>2022</v>
@@ -3664,7 +3634,7 @@
         <v>2025</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H15" s="72"/>
       <c r="I15" s="72"/>
@@ -3679,7 +3649,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
@@ -3700,7 +3670,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>8</v>
@@ -3721,7 +3691,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>8</v>
@@ -3733,7 +3703,7 @@
         <v>2026</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H18" s="72"/>
       <c r="I18" s="72"/>
@@ -3745,10 +3715,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>8</v>
@@ -3769,7 +3739,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>12</v>
@@ -3790,7 +3760,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>12</v>
@@ -3808,10 +3778,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>14</v>
@@ -3832,7 +3802,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
@@ -3853,7 +3823,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>12</v>
@@ -3872,10 +3842,10 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -3890,10 +3860,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>17</v>
@@ -3911,10 +3881,10 @@
         <v>13</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>17</v>
@@ -3932,10 +3902,10 @@
         <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>17</v>
@@ -3969,10 +3939,10 @@
         <v>21</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E30" s="34">
         <v>2023</v>
@@ -3981,7 +3951,7 @@
         <v>2026</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H30" s="81"/>
       <c r="I30" s="81"/>
@@ -3996,7 +3966,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>20</v>
@@ -4008,7 +3978,7 @@
         <v>2026</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H31" s="81"/>
       <c r="I31" s="81"/>
@@ -4020,10 +3990,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>20</v>
@@ -4044,10 +4014,10 @@
         <v>22</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -4062,10 +4032,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>18</v>
@@ -4097,7 +4067,7 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>25</v>
@@ -4105,7 +4075,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H36" s="78"/>
       <c r="I36" s="78"/>
@@ -4120,7 +4090,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>28</v>
@@ -4138,13 +4108,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="12"/>
@@ -4162,7 +4132,7 @@
         <v>27</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>28</v>
@@ -4183,10 +4153,10 @@
         <v>33</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -4204,10 +4174,10 @@
         <v>34</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -4222,13 +4192,13 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="12"/>
@@ -4246,10 +4216,10 @@
         <v>29</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -4264,13 +4234,13 @@
         <v>11</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -4285,13 +4255,13 @@
         <v>12</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="12"/>
@@ -4309,7 +4279,7 @@
         <v>32</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>31</v>
@@ -4327,10 +4297,10 @@
         <v>14</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>31</v>
@@ -4351,7 +4321,7 @@
         <v>35</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>36</v>
@@ -4372,7 +4342,7 @@
         <v>37</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>36</v>
@@ -4390,10 +4360,10 @@
         <v>17</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>36</v>
@@ -4421,16 +4391,16 @@
     </row>
     <row r="52" spans="1:13" s="9" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E52" s="42">
         <v>44925</v>
@@ -4439,7 +4409,7 @@
         <v>2025</v>
       </c>
       <c r="G52" s="43" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H52" s="82"/>
       <c r="I52" s="82"/>
@@ -4450,10 +4420,10 @@
       <c r="A53" s="1"/>
       <c r="B53" s="34"/>
       <c r="C53" s="5" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E53" s="43"/>
       <c r="F53" s="43"/>
@@ -4481,10 +4451,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>38</v>
@@ -4502,13 +4472,13 @@
         <v>2</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="12"/>
@@ -4526,7 +4496,7 @@
         <v>40</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>39</v>
@@ -4544,13 +4514,13 @@
         <v>4</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="7"/>
@@ -4565,13 +4535,13 @@
         <v>5</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
@@ -4589,7 +4559,7 @@
         <v>41</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>42</v>
@@ -4604,13 +4574,13 @@
     </row>
     <row r="61" spans="1:13" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>25</v>
@@ -4622,7 +4592,7 @@
         <v>2025</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H61" s="78"/>
       <c r="I61" s="78"/>
@@ -4650,10 +4620,10 @@
         <v>2</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E63" s="7">
         <v>2021</v>
@@ -4662,7 +4632,7 @@
         <v>2024</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H63" s="78"/>
       <c r="I63" s="78"/>
@@ -4677,7 +4647,7 @@
         <v>43</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>44</v>
@@ -4689,10 +4659,10 @@
         <v>2024</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H64" s="78" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="I64" s="85">
         <v>45444</v>
@@ -4705,10 +4675,10 @@
         <v>3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>45</v>
@@ -4729,10 +4699,10 @@
         <v>46</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -4750,7 +4720,7 @@
         <v>47</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>48</v>
@@ -4771,10 +4741,10 @@
         <v>49</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E68" s="8">
         <v>45112</v>
@@ -4783,11 +4753,11 @@
         <v>45477</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="H68" s="78"/>
       <c r="I68" s="78" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
@@ -4800,7 +4770,7 @@
         <v>51</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>52</v>
@@ -4812,13 +4782,13 @@
         <v>45554</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="H69" s="78" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="I69" s="78" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
@@ -4831,10 +4801,10 @@
         <v>53</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E70" s="8">
         <v>45077</v>
@@ -4843,13 +4813,13 @@
         <v>45442</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H70" s="78" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="I70" s="78" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
@@ -4862,10 +4832,10 @@
         <v>54</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E71" s="8">
         <v>45077</v>
@@ -4874,13 +4844,13 @@
         <v>45442</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H71" s="72" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="I71" s="78" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
@@ -4893,10 +4863,10 @@
         <v>55</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E72" s="8">
         <v>45077</v>
@@ -4905,13 +4875,13 @@
         <v>45442</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H72" s="72" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="I72" s="78" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
@@ -4921,13 +4891,13 @@
         <v>11</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E73" s="8">
         <v>45077</v>
@@ -4936,13 +4906,13 @@
         <v>45442</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H73" s="72" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="I73" s="78" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
@@ -4952,13 +4922,13 @@
         <v>12</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E74" s="8">
         <v>45077</v>
@@ -4967,13 +4937,13 @@
         <v>45442</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H74" s="72" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="I74" s="78" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
@@ -4983,13 +4953,13 @@
         <v>13</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E75" s="8">
         <v>45077</v>
@@ -4998,10 +4968,10 @@
         <v>45442</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H75" s="78" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="I75" s="77">
         <v>45444</v>
@@ -5017,10 +4987,10 @@
         <v>60</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E76" s="8">
         <v>45077</v>
@@ -5029,10 +4999,10 @@
         <v>45442</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H76" s="78" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="I76" s="77">
         <v>45444</v>
@@ -5045,13 +5015,13 @@
         <v>15</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E77" s="8">
         <v>45077</v>
@@ -5060,11 +5030,11 @@
         <v>45442</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H77" s="72"/>
       <c r="I77" s="78" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
@@ -5074,13 +5044,13 @@
         <v>16</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E78" s="8">
         <v>44992</v>
@@ -5089,11 +5059,11 @@
         <v>45357</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="H78" s="72"/>
       <c r="I78" s="78" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="L78" s="10"/>
       <c r="M78" s="10"/>
@@ -5103,13 +5073,13 @@
         <v>17</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E79" s="8">
         <v>45052</v>
@@ -5118,7 +5088,7 @@
         <v>45417</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="H79" s="72"/>
       <c r="I79" s="72"/>
@@ -5130,13 +5100,13 @@
         <v>18</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E80" s="8">
         <v>45058</v>
@@ -5145,11 +5115,11 @@
         <v>45423</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="H80" s="72"/>
       <c r="I80" s="78" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="L80" s="10"/>
       <c r="M80" s="10"/>
@@ -5159,13 +5129,13 @@
         <v>19</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E81" s="8">
         <v>45031</v>
@@ -5174,11 +5144,11 @@
         <v>45396</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="H81" s="72"/>
       <c r="I81" s="78" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="L81" s="10"/>
       <c r="M81" s="10"/>
@@ -5188,13 +5158,13 @@
         <v>20</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E82" s="8">
         <v>45031</v>
@@ -5203,11 +5173,11 @@
         <v>45396</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="H82" s="72"/>
       <c r="I82" s="78" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="L82" s="10"/>
       <c r="M82" s="10"/>
@@ -5217,13 +5187,13 @@
         <v>21</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E83" s="8">
         <v>45052</v>
@@ -5232,7 +5202,7 @@
         <v>45417</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="H83" s="72"/>
       <c r="I83" s="72"/>
@@ -5242,20 +5212,20 @@
     <row r="84" spans="1:13" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="4" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="6">
         <v>45428</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H84" s="72"/>
       <c r="I84" s="72"/>
@@ -5280,10 +5250,10 @@
         <v>1</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D86" s="63" t="s">
         <v>25</v>
@@ -5295,7 +5265,7 @@
         <v>2025</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H86" s="78"/>
       <c r="I86" s="78"/>
@@ -5307,10 +5277,10 @@
         <v>2</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D87" s="63" t="s">
         <v>25</v>
@@ -5322,7 +5292,7 @@
         <v>2026</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H87" s="72"/>
       <c r="I87" s="72"/>
@@ -5335,10 +5305,10 @@
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="7"/>
@@ -5356,10 +5326,10 @@
         <v>61</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="7"/>
@@ -5377,10 +5347,10 @@
         <v>62</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="7"/>
@@ -5398,16 +5368,16 @@
         <v>63</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="7"/>
       <c r="G91" s="6"/>
       <c r="H91" s="74" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="I91" s="77">
         <v>45778</v>
@@ -5423,10 +5393,10 @@
         <v>64</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="7"/>
@@ -5444,10 +5414,10 @@
         <v>65</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="7"/>
@@ -5465,10 +5435,10 @@
         <v>66</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="7"/>
@@ -5486,10 +5456,10 @@
         <v>67</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="7"/>
@@ -5507,10 +5477,10 @@
         <v>68</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="7"/>
@@ -5575,25 +5545,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5618,13 +5588,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E4" s="6">
         <v>30118</v>
@@ -5647,13 +5617,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E5" s="6">
         <v>30553</v>
@@ -5680,13 +5650,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E6" s="6">
         <v>25507</v>
@@ -5695,7 +5665,7 @@
         <v>39387</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="H6" s="8">
         <v>45385</v>
@@ -5763,25 +5733,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5806,10 +5776,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -5868,7 +5838,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="C1" s="25" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D1" s="26"/>
     </row>
@@ -5878,25 +5848,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5921,10 +5891,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
@@ -5954,13 +5924,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E5" s="6">
         <v>24962</v>
@@ -6018,19 +5988,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -6053,13 +6023,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E4" s="12">
         <v>2021</v>
@@ -6080,13 +6050,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E5" s="6">
         <v>45211</v>
@@ -6138,22 +6108,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -6177,10 +6147,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -6205,13 +6175,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E4" s="7">
         <v>2023</v>
@@ -6233,13 +6203,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E5" s="12">
         <v>2023</v>
@@ -6261,10 +6231,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>50</v>
@@ -6289,13 +6259,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E7" s="8">
         <v>44986</v>
@@ -6304,10 +6274,10 @@
         <v>45350</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="H7" s="72" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -6321,13 +6291,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E8" s="8">
         <v>44986</v>
@@ -6336,10 +6306,10 @@
         <v>45350</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="H8" s="72" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -6353,13 +6323,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E9" s="8">
         <v>44986</v>
@@ -6368,10 +6338,10 @@
         <v>45350</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="H9" s="74" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -6385,13 +6355,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E10" s="8">
         <v>44986</v>
@@ -6400,10 +6370,10 @@
         <v>45350</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="H10" s="72" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -6417,13 +6387,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="E11" s="8">
         <v>44986</v>
@@ -6445,13 +6415,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="E12" s="8">
         <v>44986</v>
@@ -6473,13 +6443,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="E13" s="8">
         <v>45036</v>
@@ -6501,13 +6471,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="E14" s="8">
         <v>44986</v>
@@ -6516,7 +6486,7 @@
         <v>45350</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="H14" s="72"/>
       <c r="K14" s="10"/>
@@ -6531,13 +6501,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E15" s="8">
         <v>44986</v>
@@ -6559,13 +6529,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E16" s="8">
         <v>44986</v>
@@ -6587,13 +6557,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E17" s="8">
         <v>44986</v>
@@ -6602,7 +6572,7 @@
         <v>45350</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="H17" s="72"/>
       <c r="K17" s="10"/>
@@ -6617,13 +6587,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E18" s="8">
         <v>44986</v>
@@ -6632,7 +6602,7 @@
         <v>45350</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="H18" s="72"/>
       <c r="K18" s="10"/>
@@ -6647,13 +6617,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E19" s="8">
         <v>44986</v>
@@ -6675,13 +6645,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E20" s="8">
         <v>44986</v>
@@ -6703,13 +6673,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E21" s="8">
         <v>44986</v>
@@ -6731,13 +6701,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E22" s="8">
         <v>44986</v>
@@ -6753,13 +6723,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E23" s="8">
         <v>44986</v>
@@ -6768,7 +6738,7 @@
         <v>45350</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="H23" s="78"/>
     </row>
@@ -6777,13 +6747,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E24" s="8">
         <v>44986</v>
@@ -6792,7 +6762,7 @@
         <v>45350</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="H24" s="78"/>
     </row>
@@ -6801,13 +6771,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E25" s="8">
         <v>44986</v>
@@ -6816,7 +6786,7 @@
         <v>45350</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="H25" s="78"/>
     </row>
@@ -6825,13 +6795,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E26" s="8">
         <v>44986</v>
@@ -6847,13 +6817,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E27" s="8">
         <v>44986</v>
@@ -6862,7 +6832,7 @@
         <v>45350</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="H27" s="78"/>
     </row>
@@ -6871,13 +6841,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E28" s="8">
         <v>45108</v>
@@ -6893,13 +6863,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E29" s="8">
         <v>44986</v>
@@ -6908,7 +6878,7 @@
         <v>45350</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="H29" s="72"/>
     </row>
@@ -6917,13 +6887,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E30" s="8">
         <v>44986</v>
@@ -6932,7 +6902,7 @@
         <v>45350</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="H30" s="72"/>
       <c r="I30" s="10"/>
@@ -6943,13 +6913,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E31" s="8">
         <v>44986</v>
@@ -6967,13 +6937,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E32" s="8">
         <v>45002</v>
@@ -6986,14 +6956,14 @@
     </row>
     <row r="33" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="6"/>
@@ -7002,16 +6972,16 @@
     </row>
     <row r="34" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E34" s="8">
         <v>44876</v>
@@ -7024,16 +6994,16 @@
     </row>
     <row r="35" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E35" s="8">
         <v>45042</v>
@@ -7049,13 +7019,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E36" s="8">
         <v>45042</v>
@@ -7068,16 +7038,16 @@
     </row>
     <row r="37" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="E37" s="8">
         <v>45048</v>
@@ -7093,13 +7063,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E38" s="8">
         <v>45048</v>
@@ -7115,13 +7085,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E39" s="8">
         <v>44986</v>
@@ -7130,7 +7100,7 @@
         <v>45350</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="H39" s="72"/>
     </row>
@@ -7170,25 +7140,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7213,13 +7183,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E3" s="7">
         <v>2021</v>
@@ -7228,7 +7198,7 @@
         <v>2024</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="H3" s="72"/>
       <c r="I3" s="72"/>
@@ -7238,13 +7208,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E4" s="14">
         <v>45121</v>
@@ -7253,10 +7223,10 @@
         <v>45486</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H4" s="73" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="I4" s="92">
         <v>45413</v>
@@ -7267,13 +7237,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="E5" s="67">
         <v>45121</v>
@@ -7282,13 +7252,13 @@
         <v>45486</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H5" s="72" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="I5" s="77" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -7296,13 +7266,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="E6" s="6">
         <v>45121</v>
@@ -7311,13 +7281,13 @@
         <v>45486</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H6" s="72" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="I6" s="77" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -7331,13 +7301,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="E7" s="6">
         <v>45071</v>
@@ -7346,13 +7316,13 @@
         <v>45436</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H7" s="72" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="I7" s="89" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -7366,13 +7336,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="E8" s="14">
         <v>45071</v>
@@ -7381,7 +7351,7 @@
         <v>45436</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H8" s="92">
         <v>44959</v>
@@ -7401,13 +7371,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="E9" s="6">
         <v>45078</v>
@@ -7416,13 +7386,13 @@
         <v>45443</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H9" s="72" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="I9" s="77" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -7436,13 +7406,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E10" s="6">
         <v>45087</v>
@@ -7451,13 +7421,13 @@
         <v>45448</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H10" s="72" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="I10" s="77" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -7471,13 +7441,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="E11" s="70">
         <v>45071</v>
@@ -7486,13 +7456,13 @@
         <v>45436</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H11" s="86" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="I11" s="90" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -7506,13 +7476,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E12" s="14">
         <v>45121</v>
@@ -7521,13 +7491,13 @@
         <v>45486</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H12" s="73" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="I12" s="91" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -7541,13 +7511,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E13" s="6">
         <v>45071</v>
@@ -7556,10 +7526,10 @@
         <v>45436</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H13" s="78" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="I13" s="85">
         <v>45809</v>
@@ -7576,13 +7546,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E14" s="6">
         <v>45076</v>
@@ -7591,10 +7561,10 @@
         <v>45441</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H14" s="78" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="I14" s="85">
         <v>45809</v>
@@ -7611,13 +7581,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E15" s="6">
         <v>45071</v>
@@ -7626,10 +7596,10 @@
         <v>45436</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H15" s="78" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="I15" s="85">
         <v>45809</v>
@@ -7677,28 +7647,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="J1" s="71" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7724,13 +7694,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E3" s="2">
         <v>2021</v>
@@ -7739,7 +7709,7 @@
         <v>2024</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H3" s="73"/>
       <c r="I3" s="73"/>
@@ -7756,13 +7726,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E4" s="6">
         <v>45037</v>
@@ -7771,10 +7741,10 @@
         <v>45402</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H4" s="72" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="I4" s="72">
         <v>2024</v>
@@ -7792,13 +7762,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E5" s="6">
         <v>45037</v>
@@ -7807,7 +7777,7 @@
         <v>45402</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="H5" s="72"/>
       <c r="I5" s="72"/>
@@ -7824,13 +7794,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="E6" s="6">
         <v>45037</v>
@@ -7839,7 +7809,7 @@
         <v>45402</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="H6" s="77">
         <v>44682</v>
@@ -7860,13 +7830,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="E7" s="6">
         <v>45017</v>
@@ -7875,7 +7845,7 @@
         <v>45402</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="H7" s="77">
         <v>44682</v>
@@ -7896,13 +7866,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="E8" s="6">
         <v>45037</v>
@@ -7911,7 +7881,7 @@
         <v>45402</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="H8" s="77">
         <v>44682</v>
@@ -7932,13 +7902,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E9" s="6">
         <v>45037</v>
@@ -7947,7 +7917,7 @@
         <v>45402</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="H9" s="77">
         <v>44682</v>
@@ -7968,13 +7938,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="E10" s="6">
         <v>45017</v>
@@ -7983,7 +7953,7 @@
         <v>45402</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="H10" s="77">
         <v>44682</v>
@@ -8004,13 +7974,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="E11" s="6">
         <v>45037</v>
@@ -8019,7 +7989,7 @@
         <v>45402</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="H11" s="77">
         <v>45170</v>
@@ -8040,13 +8010,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="E12" s="6">
         <v>45037</v>
@@ -8055,7 +8025,7 @@
         <v>45402</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="H12" s="72">
         <v>2023</v>
@@ -8076,13 +8046,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E13" s="6">
         <v>45037</v>
@@ -8091,10 +8061,10 @@
         <v>45402</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="H13" s="72" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="I13" s="72"/>
       <c r="J13" s="72"/>
@@ -8110,13 +8080,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="E14" s="6">
         <v>45037</v>
@@ -8125,7 +8095,7 @@
         <v>45402</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="H14" s="77">
         <v>44682</v>
@@ -8146,13 +8116,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="E15" s="6">
         <v>45040</v>
@@ -8161,7 +8131,7 @@
         <v>45039</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="H15" s="77">
         <v>44682</v>
@@ -8181,7 +8151,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="7"/>
@@ -8233,25 +8203,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -8276,10 +8246,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>25</v>
@@ -8291,7 +8261,7 @@
         <v>45574</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H3" s="78"/>
       <c r="I3" s="78"/>
@@ -8307,13 +8277,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E4" s="32">
         <v>45189</v>
@@ -8322,10 +8292,10 @@
         <v>46284</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H4" s="80" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="I4" s="80"/>
       <c r="L4" s="10"/>
@@ -8340,13 +8310,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E5" s="32">
         <v>45210</v>
@@ -8355,10 +8325,10 @@
         <v>45575</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="H5" s="80" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="I5" s="79"/>
       <c r="L5" s="10"/>
@@ -8373,13 +8343,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E6" s="32">
         <v>45211</v>
@@ -8388,10 +8358,10 @@
         <v>45576</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="H6" s="80" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="I6" s="72"/>
       <c r="L6" s="10"/>
@@ -8406,25 +8376,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="F7" s="6">
         <v>45570</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="H7" s="80" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="I7" s="72"/>
       <c r="L7" s="10"/>
@@ -8439,25 +8409,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="F8" s="6">
         <v>45562</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H8" s="80" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="I8" s="72"/>
       <c r="L8" s="10"/>
@@ -8473,15 +8443,15 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H9" s="72"/>
       <c r="I9" s="72"/>
@@ -8497,25 +8467,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="F10" s="6">
         <v>45570</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="H10" s="72" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="I10" s="72"/>
       <c r="L10" s="10"/>
@@ -8530,13 +8500,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E11" s="32">
         <v>45210</v>
@@ -8545,10 +8515,10 @@
         <v>45575</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="I11" s="72"/>
       <c r="L11" s="10"/>
@@ -8563,22 +8533,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="F12" s="6">
         <v>45562</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H12" s="72"/>
       <c r="I12" s="72"/>
@@ -8594,22 +8564,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="F13" s="6">
         <v>45574</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H13" s="72"/>
       <c r="I13" s="72"/>
@@ -8625,22 +8595,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="F14" s="6">
         <v>45562</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H14" s="72"/>
       <c r="I14" s="72"/>
@@ -8656,22 +8626,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="F15" s="6">
         <v>45562</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H15" s="72"/>
       <c r="I15" s="72"/>
@@ -8687,22 +8657,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="F16" s="6">
         <v>45570</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="H16" s="72"/>
       <c r="I16" s="72"/>
@@ -8718,13 +8688,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E17" s="6">
         <v>45210</v>
@@ -8733,7 +8703,7 @@
         <v>45575</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="H17" s="72"/>
       <c r="I17" s="72"/>
@@ -8749,22 +8719,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="F18" s="6">
         <v>45545</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H18" s="72"/>
       <c r="I18" s="72"/>
@@ -8780,22 +8750,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="F19" s="6">
         <v>45380</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H19" s="72"/>
       <c r="I19" s="72"/>
@@ -8811,22 +8781,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="F20" s="6">
         <v>45380</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H20" s="72"/>
       <c r="I20" s="72"/>
@@ -8842,22 +8812,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F21" s="6">
         <v>45387</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H21" s="72"/>
       <c r="I21" s="72"/>
@@ -8873,22 +8843,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F22" s="6">
         <v>45387</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H22" s="72"/>
       <c r="I22" s="72"/>
@@ -8904,22 +8874,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F23" s="6">
         <v>45387</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H23" s="72"/>
       <c r="I23" s="72"/>
@@ -8935,22 +8905,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F24" s="6">
         <v>45387</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H24" s="72"/>
       <c r="I24" s="72"/>
@@ -8966,22 +8936,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="F25" s="6">
         <v>45427</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H25" s="72"/>
       <c r="I25" s="72"/>
@@ -8997,22 +8967,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="F26" s="6">
         <v>45427</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H26" s="72"/>
       <c r="I26" s="72"/>
@@ -9050,13 +9020,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F1" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="G1" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="H1" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="66" x14ac:dyDescent="0.3">
@@ -9064,13 +9034,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="14">
@@ -9089,17 +9059,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="14" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="G3" s="6">
         <v>45574</v>
@@ -9114,17 +9084,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="2" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="G4" s="6">
         <v>45567</v>
@@ -9139,17 +9109,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="2" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="G5" s="6">
         <v>45568</v>
@@ -9164,17 +9134,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="2" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G6" s="6">
         <v>45575</v>
@@ -9217,25 +9187,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -9260,13 +9230,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="E3" s="6">
         <v>45006</v>
@@ -9275,7 +9245,7 @@
         <v>45371</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="H3" s="74">
         <v>44658</v>
@@ -9295,13 +9265,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E4" s="6">
         <v>45006</v>
@@ -9310,7 +9280,7 @@
         <v>45371</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="H4" s="74">
         <v>44658</v>
@@ -9330,13 +9300,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="E5" s="6">
         <v>45006</v>
@@ -9345,7 +9315,7 @@
         <v>45371</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="H5" s="74">
         <v>44658</v>
@@ -9359,13 +9329,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E6" s="6">
         <v>45006</v>
@@ -9374,7 +9344,7 @@
         <v>45371</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="H6" s="88">
         <v>44658</v>
@@ -9388,13 +9358,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="E7" s="6">
         <v>45006</v>
@@ -9403,7 +9373,7 @@
         <v>45371</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="H7" s="74">
         <v>44658</v>
@@ -9417,13 +9387,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E8" s="6">
         <v>45006</v>
@@ -9432,7 +9402,7 @@
         <v>45371</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="H8" s="74">
         <v>44658</v>
@@ -9446,13 +9416,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E9" s="6">
         <v>45006</v>
@@ -9461,7 +9431,7 @@
         <v>45371</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="H9" s="74">
         <v>44658</v>
@@ -9475,13 +9445,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="E10" s="6">
         <v>45006</v>
@@ -9490,7 +9460,7 @@
         <v>45371</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="H10" s="74">
         <v>44658</v>
@@ -9504,13 +9474,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="E11" s="6">
         <v>45006</v>
@@ -9519,7 +9489,7 @@
         <v>45371</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="H11" s="72"/>
       <c r="I11" s="72"/>
@@ -9529,13 +9499,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E12" s="6">
         <v>45006</v>
@@ -9544,7 +9514,7 @@
         <v>45371</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="H12" s="72"/>
       <c r="I12" s="72"/>
@@ -9554,13 +9524,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="E13" s="6">
         <v>45006</v>
@@ -9569,7 +9539,7 @@
         <v>45371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="H13" s="72"/>
       <c r="I13" s="72"/>
@@ -9579,13 +9549,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="E14" s="6">
         <v>44931</v>
@@ -9594,7 +9564,7 @@
         <v>46026</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="H14" s="72"/>
       <c r="I14" s="72"/>
@@ -9612,8 +9582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -9635,25 +9605,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -9678,10 +9648,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -9693,7 +9663,7 @@
         <v>45534</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H3" s="72"/>
       <c r="I3" s="72"/>
@@ -9709,13 +9679,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>308</v>
+        <v>85</v>
       </c>
       <c r="E4" s="8">
         <v>45201</v>
@@ -9724,10 +9694,10 @@
         <v>46296</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="H4" s="77" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="I4" s="74">
         <v>45763</v>
@@ -9744,13 +9714,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>308</v>
+        <v>85</v>
       </c>
       <c r="E5" s="8">
         <v>44235</v>
@@ -9759,10 +9729,10 @@
         <v>45329</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I5" s="74">
         <v>45778</v>
@@ -9782,7 +9752,7 @@
         <v>69</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>70</v>
@@ -9794,10 +9764,10 @@
         <v>45364</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H6" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I6" s="74">
         <v>45778</v>
@@ -9817,7 +9787,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>70</v>
@@ -9829,10 +9799,10 @@
         <v>45364</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H7" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I7" s="74">
         <v>45778</v>
@@ -9852,7 +9822,7 @@
         <v>72</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>70</v>
@@ -9864,10 +9834,10 @@
         <v>45364</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H8" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I8" s="74">
         <v>45778</v>
@@ -9887,7 +9857,7 @@
         <v>73</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>70</v>
@@ -9899,10 +9869,10 @@
         <v>45364</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H9" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I9" s="74">
         <v>45778</v>
@@ -9922,7 +9892,7 @@
         <v>74</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>70</v>
@@ -9934,10 +9904,10 @@
         <v>45364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H10" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I10" s="74">
         <v>45778</v>
@@ -9957,7 +9927,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>70</v>
@@ -9969,10 +9939,10 @@
         <v>45364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I11" s="74">
         <v>45778</v>
@@ -9992,7 +9962,7 @@
         <v>76</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>70</v>
@@ -10004,10 +9974,10 @@
         <v>45364</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H12" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I12" s="74">
         <v>45778</v>
@@ -10027,7 +9997,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>70</v>
@@ -10039,10 +10009,10 @@
         <v>45364</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H13" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I13" s="74">
         <v>45778</v>
@@ -10062,10 +10032,10 @@
         <v>78</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E14" s="8">
         <v>44999</v>
@@ -10074,10 +10044,10 @@
         <v>45364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H14" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I14" s="74">
         <v>45778</v>
@@ -10094,13 +10064,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E15" s="8">
         <v>44999</v>
@@ -10109,10 +10079,10 @@
         <v>45364</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H15" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I15" s="74">
         <v>45778</v>
@@ -10129,13 +10099,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E16" s="8">
         <v>45189</v>
@@ -10144,10 +10114,10 @@
         <v>45554</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H16" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I16" s="74">
         <v>45778</v>
@@ -10164,13 +10134,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E17" s="8">
         <v>44999</v>
@@ -10179,10 +10149,10 @@
         <v>45364</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H17" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I17" s="74">
         <v>45778</v>
@@ -10202,10 +10172,10 @@
         <v>56</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E18" s="6">
         <v>45100</v>
@@ -10214,10 +10184,10 @@
         <v>45465</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="H18" s="72" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="I18" s="74">
         <v>45778</v>
@@ -10237,10 +10207,10 @@
         <v>57</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E19" s="6">
         <v>45100</v>
@@ -10249,10 +10219,10 @@
         <v>45465</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="H19" s="72" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="I19" s="74">
         <v>45778</v>
@@ -10272,10 +10242,10 @@
         <v>58</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E20" s="6">
         <v>45100</v>
@@ -10284,10 +10254,10 @@
         <v>45465</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="H20" s="72" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="I20" s="74">
         <v>45778</v>
@@ -10304,13 +10274,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E21" s="6">
         <v>45142</v>
@@ -10319,7 +10289,7 @@
         <v>45465</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="H21" s="74">
         <v>45078</v>
@@ -10340,10 +10310,10 @@
         <v>59</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>494</v>
+        <v>264</v>
       </c>
       <c r="E22" s="8">
         <v>45100</v>
@@ -10352,10 +10322,10 @@
         <v>45465</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="H22" s="72" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="I22" s="74">
         <v>45778</v>
@@ -10420,25 +10390,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -10463,22 +10433,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="E3" s="6">
         <v>45029</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H3" s="72"/>
       <c r="I3" s="72"/>
@@ -10488,22 +10458,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="E4" s="6">
         <v>45029</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H4" s="72"/>
       <c r="I4" s="72"/>
@@ -10513,22 +10483,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E5" s="6">
         <v>45029</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H5" s="72"/>
       <c r="I5" s="72"/>
@@ -10538,22 +10508,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E6" s="6">
         <v>45029</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H6" s="72"/>
       <c r="I6" s="72"/>
@@ -10563,22 +10533,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="E7" s="6">
         <v>45029</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H7" s="72"/>
       <c r="I7" s="72"/>
@@ -10588,22 +10558,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="E8" s="6">
         <v>45029</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H8" s="73"/>
       <c r="I8" s="73"/>
@@ -10613,22 +10583,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="E9" s="6">
         <v>45029</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H9" s="73"/>
       <c r="I9" s="73"/>
@@ -10638,22 +10608,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="E10" s="6">
         <v>45029</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H10" s="72"/>
       <c r="I10" s="72"/>
@@ -10663,27 +10633,27 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="E11" s="14">
         <v>45093</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H11" s="73"/>
       <c r="I11" s="73"/>
       <c r="K11" s="9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -10722,22 +10692,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -10761,13 +10731,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
@@ -10776,16 +10746,16 @@
     </row>
     <row r="4" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="E4" s="43"/>
       <c r="F4" s="43"/>
@@ -10797,13 +10767,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
@@ -10825,18 +10795,18 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="H7" s="72"/>
     </row>
@@ -10845,13 +10815,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -10863,13 +10833,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -10881,18 +10851,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="H10" s="72"/>
     </row>
@@ -10901,18 +10871,18 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="H11" s="72"/>
     </row>
@@ -10921,18 +10891,18 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="H12" s="72"/>
     </row>
@@ -10941,18 +10911,18 @@
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="H13" s="72"/>
       <c r="K13" s="10"/>
@@ -10964,21 +10934,21 @@
     </row>
     <row r="14" spans="1:16" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="H14" s="72"/>
       <c r="K14" s="10"/>
@@ -10990,16 +10960,16 @@
     </row>
     <row r="15" spans="1:16" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -11014,16 +10984,16 @@
     </row>
     <row r="16" spans="1:16" s="9" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -11057,18 +11027,18 @@
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="H18" s="74"/>
       <c r="K18" s="10"/>
@@ -11083,13 +11053,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -11107,13 +11077,13 @@
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -11131,18 +11101,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="H21" s="74"/>
       <c r="K21" s="10"/>
@@ -11157,18 +11127,18 @@
         <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="H22" s="74"/>
       <c r="K22" s="10"/>
@@ -11183,16 +11153,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="76" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -11209,13 +11179,13 @@
         <v>7</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -11233,18 +11203,18 @@
         <v>8</v>
       </c>
       <c r="B25" s="76" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="H25" s="74"/>
       <c r="K25" s="10"/>
@@ -11259,13 +11229,13 @@
         <v>9</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -11283,18 +11253,18 @@
         <v>10</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="H27" s="74"/>
       <c r="K27" s="10"/>
@@ -11306,14 +11276,14 @@
     </row>
     <row r="28" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B28" s="59"/>
       <c r="C28" s="34" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E28" s="59"/>
       <c r="F28" s="59"/>
@@ -11335,13 +11305,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="7"/>
@@ -11353,13 +11323,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="7"/>
@@ -11371,13 +11341,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="7"/>
@@ -11386,16 +11356,16 @@
     </row>
     <row r="33" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7"/>
@@ -11404,16 +11374,16 @@
     </row>
     <row r="34" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7"/>
@@ -11422,16 +11392,16 @@
     </row>
     <row r="35" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7"/>
@@ -11440,16 +11410,16 @@
     </row>
     <row r="36" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
@@ -11472,10 +11442,10 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -11487,13 +11457,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
@@ -11505,13 +11475,13 @@
         <v>3</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
@@ -11523,13 +11493,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -11541,13 +11511,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -11564,7 +11534,7 @@
       <c r="G43" s="45"/>
       <c r="H43" s="38"/>
       <c r="J43" s="9" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="39.6" x14ac:dyDescent="0.3">
@@ -11572,13 +11542,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
@@ -11590,13 +11560,13 @@
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
@@ -11608,13 +11578,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="7"/>
@@ -11632,13 +11602,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="7"/>
@@ -11669,16 +11639,16 @@
     </row>
     <row r="49" spans="1:16" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B49" s="75" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="7"/>
@@ -11693,16 +11663,16 @@
     </row>
     <row r="50" spans="1:16" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="B50" s="75" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
@@ -11717,16 +11687,16 @@
     </row>
     <row r="51" spans="1:16" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="B51" s="75" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
@@ -11744,13 +11714,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="75" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="7"/>
@@ -11810,28 +11780,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="J1" s="71" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -11857,13 +11827,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E3" s="6">
         <v>44747</v>
@@ -11887,13 +11857,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -11913,13 +11883,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -11939,13 +11909,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -11965,13 +11935,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -11991,13 +11961,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -12017,13 +11987,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -12043,13 +12013,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -12069,13 +12039,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -12095,13 +12065,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -12121,13 +12091,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
@@ -12147,13 +12117,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
@@ -12173,13 +12143,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
@@ -12199,13 +12169,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
@@ -12225,13 +12195,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
@@ -12251,13 +12221,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
@@ -12277,13 +12247,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
@@ -12303,7 +12273,7 @@
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -12323,7 +12293,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -12343,7 +12313,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -12361,11 +12331,11 @@
     <row r="23" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="4" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -12385,7 +12355,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -12414,7 +12384,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -12436,22 +12406,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -12475,10 +12445,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -12503,13 +12473,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="12"/>
@@ -12527,13 +12497,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="12"/>
@@ -12551,13 +12521,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="12"/>
@@ -12575,13 +12545,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="12"/>
@@ -12599,13 +12569,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="12"/>
@@ -12623,13 +12593,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="12"/>
@@ -12647,13 +12617,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="12"/>
@@ -12671,13 +12641,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="12"/>
@@ -12695,13 +12665,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="12"/>
@@ -12719,13 +12689,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="12"/>
@@ -12743,13 +12713,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="12"/>
@@ -12767,13 +12737,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="12"/>
@@ -12791,13 +12761,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>256</v>
+        <v>702</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="12"/>
@@ -12815,13 +12785,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>311</v>
+        <v>115</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="12"/>
@@ -12839,13 +12809,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>311</v>
+        <v>115</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="12"/>
@@ -12863,13 +12833,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="12"/>
@@ -12887,13 +12857,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E20" s="60"/>
       <c r="F20" s="60"/>
@@ -12911,13 +12881,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -12935,13 +12905,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E22" s="8">
         <v>45203</v>
@@ -12950,7 +12920,7 @@
         <v>45568</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="H22" s="74">
         <v>45901</v>
@@ -13014,19 +12984,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -13043,10 +13013,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -13058,7 +13028,7 @@
         <v>45391</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -13072,13 +13042,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E4" s="7">
         <v>2021</v>
@@ -13099,13 +13069,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="12"/>
@@ -13122,13 +13092,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -13145,13 +13115,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="12"/>
@@ -13168,13 +13138,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="12"/>
@@ -13191,13 +13161,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="12"/>
@@ -13214,13 +13184,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="12"/>
@@ -13237,13 +13207,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="12"/>
@@ -13260,13 +13230,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="12"/>
@@ -13283,13 +13253,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="12"/>
@@ -13306,13 +13276,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -13329,13 +13299,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="12"/>
@@ -13352,13 +13322,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -13375,13 +13345,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -13398,13 +13368,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -13421,13 +13391,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -13444,13 +13414,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -13467,13 +13437,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -13490,13 +13460,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -13513,13 +13483,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -13536,13 +13506,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -13559,13 +13529,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -13582,13 +13552,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="12"/>
@@ -13605,13 +13575,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="12"/>
@@ -13628,13 +13598,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="12"/>
@@ -13651,13 +13621,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -13721,22 +13691,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13776,10 +13746,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
@@ -13838,22 +13808,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13877,13 +13847,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E3" s="52">
         <v>37067</v>
@@ -13895,7 +13865,7 @@
         <v>45387</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
@@ -13909,13 +13879,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E4" s="8">
         <v>37591</v>
@@ -13927,7 +13897,7 @@
         <v>2026</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -13941,13 +13911,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E5" s="6">
         <v>43871</v>
@@ -13959,7 +13929,7 @@
         <v>45479</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -13973,13 +13943,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E6" s="6">
         <v>44148</v>
@@ -13991,7 +13961,7 @@
         <v>45370</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -14052,19 +14022,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14090,10 +14060,10 @@
         <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="E3" s="7">
         <v>2022</v>
@@ -14102,7 +14072,7 @@
         <v>2025</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -14132,7 +14102,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
@@ -14140,7 +14110,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
@@ -14154,22 +14124,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="F6" s="8">
         <v>45387</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -14183,13 +14153,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E7" s="6">
         <v>45211</v>
@@ -14198,7 +14168,7 @@
         <v>45576</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -14310,8 +14280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -14333,25 +14303,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14376,13 +14346,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>327</v>
+        <v>703</v>
       </c>
       <c r="E3" s="8">
         <v>44959</v>
@@ -14391,7 +14361,7 @@
         <v>46054</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H3" s="72"/>
       <c r="I3" s="72"/>
@@ -14407,13 +14377,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E4" s="8">
         <v>44965</v>
@@ -14422,10 +14392,10 @@
         <v>45330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H4" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I4" s="74">
         <v>45778</v>
@@ -14442,13 +14412,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E5" s="8">
         <v>44965</v>
@@ -14457,10 +14427,10 @@
         <v>45330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H5" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I5" s="74">
         <v>45778</v>
@@ -14477,13 +14447,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E6" s="8">
         <v>44965</v>
@@ -14492,10 +14462,10 @@
         <v>45330</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H6" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I6" s="74">
         <v>45778</v>
@@ -14512,13 +14482,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E7" s="8">
         <v>44965</v>
@@ -14527,10 +14497,10 @@
         <v>45007</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H7" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I7" s="74">
         <v>45778</v>
@@ -14547,13 +14517,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E8" s="8">
         <v>44965</v>
@@ -14562,10 +14532,10 @@
         <v>45330</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H8" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I8" s="74">
         <v>45778</v>
@@ -14582,13 +14552,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E9" s="8">
         <v>44965</v>
@@ -14597,10 +14567,10 @@
         <v>45330</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H9" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I9" s="74">
         <v>45778</v>
@@ -14617,13 +14587,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E10" s="6">
         <v>44893</v>
@@ -14632,7 +14602,7 @@
         <v>45257</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H10" s="78"/>
       <c r="I10" s="88"/>
@@ -14648,13 +14618,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E11" s="29">
         <v>44893</v>
@@ -14663,7 +14633,7 @@
         <v>45257</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H11" s="73"/>
       <c r="I11" s="92"/>
@@ -14679,13 +14649,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E12" s="6">
         <v>44978</v>
@@ -14694,7 +14664,7 @@
         <v>45342</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H12" s="78"/>
       <c r="I12" s="88"/>
@@ -14710,13 +14680,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E13" s="6">
         <v>44978</v>
@@ -14725,7 +14695,7 @@
         <v>45342</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H13" s="83"/>
       <c r="I13" s="93"/>
@@ -14741,13 +14711,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E14" s="8">
         <v>44992</v>
@@ -14756,7 +14726,7 @@
         <v>45357</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H14" s="72"/>
       <c r="I14" s="74"/>
@@ -14772,13 +14742,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E15" s="6">
         <v>44978</v>
@@ -14787,10 +14757,10 @@
         <v>45343</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H15" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I15" s="74">
         <v>45778</v>
@@ -14807,13 +14777,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E16" s="6">
         <v>44978</v>
@@ -14822,10 +14792,10 @@
         <v>45343</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H16" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I16" s="74">
         <v>45778</v>
@@ -14842,13 +14812,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E17" s="6">
         <v>44978</v>
@@ -14857,7 +14827,7 @@
         <v>45343</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H17" s="72"/>
       <c r="I17" s="74"/>
@@ -14873,13 +14843,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E18" s="6">
         <v>44978</v>
@@ -14888,10 +14858,10 @@
         <v>45343</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H18" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I18" s="74">
         <v>45778</v>
@@ -14908,13 +14878,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E19" s="6">
         <v>44978</v>
@@ -14923,10 +14893,10 @@
         <v>45343</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H19" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I19" s="74">
         <v>45778</v>
@@ -14943,13 +14913,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E20" s="6">
         <v>44978</v>
@@ -14958,10 +14928,10 @@
         <v>45343</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H20" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I20" s="74">
         <v>45778</v>
@@ -14978,13 +14948,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E21" s="6">
         <v>44978</v>
@@ -14993,10 +14963,10 @@
         <v>45343</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H21" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I21" s="74">
         <v>45778</v>
@@ -15013,13 +14983,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E22" s="6">
         <v>44978</v>
@@ -15028,10 +14998,10 @@
         <v>45343</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H22" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I22" s="74">
         <v>45778</v>
@@ -15048,13 +15018,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E23" s="6">
         <v>44978</v>
@@ -15063,10 +15033,10 @@
         <v>45343</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H23" s="83" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I23" s="74">
         <v>45778</v>
@@ -15083,13 +15053,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E24" s="6">
         <v>44978</v>
@@ -15098,7 +15068,7 @@
         <v>45343</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H24" s="72"/>
       <c r="I24" s="74"/>
@@ -15114,13 +15084,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E25" s="6">
         <v>44978</v>
@@ -15129,10 +15099,10 @@
         <v>45343</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H25" s="83" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I25" s="74">
         <v>45778</v>
@@ -15149,13 +15119,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E26" s="6">
         <v>44978</v>
@@ -15164,10 +15134,10 @@
         <v>45343</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H26" s="83" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I26" s="74">
         <v>45778</v>
@@ -15184,13 +15154,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E27" s="6">
         <v>44978</v>
@@ -15199,7 +15169,7 @@
         <v>45343</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H27" s="72"/>
       <c r="I27" s="74"/>
@@ -15215,13 +15185,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>301</v>
+        <v>704</v>
       </c>
       <c r="E28" s="6">
         <v>44978</v>
@@ -15230,10 +15200,10 @@
         <v>45342</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H28" s="83" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I28" s="74">
         <v>45778</v>
@@ -15250,13 +15220,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>301</v>
+        <v>704</v>
       </c>
       <c r="E29" s="6">
         <v>44978</v>
@@ -15265,7 +15235,7 @@
         <v>45342</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H29" s="83"/>
       <c r="I29" s="93"/>
@@ -15281,13 +15251,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>301</v>
+        <v>704</v>
       </c>
       <c r="E30" s="6">
         <v>44978</v>
@@ -15296,7 +15266,7 @@
         <v>44978</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H30" s="83"/>
       <c r="I30" s="93"/>
@@ -15312,13 +15282,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>301</v>
+        <v>704</v>
       </c>
       <c r="E31" s="6">
         <v>44978</v>
@@ -15327,7 +15297,7 @@
         <v>44978</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H31" s="83"/>
       <c r="I31" s="93"/>
@@ -15343,13 +15313,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>301</v>
+        <v>704</v>
       </c>
       <c r="E32" s="6">
         <v>44978</v>
@@ -15358,7 +15328,7 @@
         <v>44978</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H32" s="83"/>
       <c r="I32" s="93"/>
@@ -15374,13 +15344,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>301</v>
+        <v>704</v>
       </c>
       <c r="E33" s="6">
         <v>44978</v>
@@ -15389,7 +15359,7 @@
         <v>44978</v>
       </c>
       <c r="G33" s="60" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H33" s="84"/>
       <c r="I33" s="94"/>
@@ -15405,13 +15375,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>301</v>
+        <v>704</v>
       </c>
       <c r="E34" s="6">
         <v>44978</v>
@@ -15420,7 +15390,7 @@
         <v>44978</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H34" s="83"/>
       <c r="I34" s="93"/>
@@ -15436,13 +15406,13 @@
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>365</v>
+        <v>705</v>
       </c>
       <c r="E35" s="6">
         <v>44978</v>
@@ -15451,10 +15421,10 @@
         <v>44978</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H35" s="83" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I35" s="74">
         <v>45778</v>
@@ -15471,13 +15441,13 @@
         <v>37</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>365</v>
+        <v>705</v>
       </c>
       <c r="E36" s="6">
         <v>44978</v>
@@ -15486,10 +15456,10 @@
         <v>44978</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H36" s="83" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I36" s="74">
         <v>45778</v>
@@ -15537,25 +15507,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15580,20 +15550,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E3" s="64"/>
       <c r="F3" s="7">
         <v>2026</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="H3" s="72"/>
       <c r="I3" s="72"/>
@@ -15609,18 +15579,18 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H4" s="72"/>
       <c r="I4" s="72"/>
@@ -15636,19 +15606,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
       <c r="H5" s="72" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I5" s="72"/>
       <c r="L5" s="10"/>
@@ -15663,19 +15633,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="6"/>
       <c r="G6" s="2"/>
       <c r="H6" s="73" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I6" s="73"/>
       <c r="L6" s="10"/>
@@ -15690,13 +15660,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="6"/>
@@ -15715,13 +15685,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="6"/>
@@ -15740,13 +15710,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="6"/>
@@ -15765,19 +15735,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
       <c r="H10" s="73" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I10" s="73"/>
       <c r="L10" s="10"/>
@@ -15792,10 +15762,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="14"/>
@@ -15815,19 +15785,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="6"/>
       <c r="G12" s="34"/>
       <c r="H12" s="81" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I12" s="81"/>
       <c r="L12" s="10"/>
@@ -15842,10 +15812,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="14"/>
@@ -15865,10 +15835,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="14"/>
@@ -15889,10 +15859,10 @@
       </c>
       <c r="B15" s="61"/>
       <c r="C15" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="6"/>
